--- a/data/17_cluster/config.xlsx
+++ b/data/17_cluster/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/C3D39F69-95E1-43F1-875F-79CD95DA5A05/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/stress/data/17_cluster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/68338FDB-418E-475F-AB2C-1114A54428ED/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/stress/data/17_cluster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E9FEBB-A870-DA4B-A6AC-7D44795C2700}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3EFAAF-2E86-C746-844B-68EB298DA4B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26380" yWindow="1160" windowWidth="13040" windowHeight="19300" activeTab="1" xr2:uid="{D70F0D5F-63CF-AE44-9328-5C6897092FCC}"/>
+    <workbookView xWindow="26320" yWindow="8640" windowWidth="13040" windowHeight="19300" activeTab="1" xr2:uid="{D70F0D5F-63CF-AE44-9328-5C6897092FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="wgcna" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="183">
   <si>
     <t>cid</t>
   </si>
@@ -115,33 +115,9 @@
     <t>m08</t>
   </si>
   <si>
-    <t>recovery</t>
-  </si>
-  <si>
-    <t>down-up</t>
-  </si>
-  <si>
-    <t>early-activation</t>
-  </si>
-  <si>
-    <t>late-activation</t>
-  </si>
-  <si>
-    <t>slowly-activation</t>
-  </si>
-  <si>
     <t>early-repression</t>
   </si>
   <si>
-    <t>late-repression</t>
-  </si>
-  <si>
-    <t>slowly-repression</t>
-  </si>
-  <si>
-    <t>quick-recovery</t>
-  </si>
-  <si>
     <t>bat</t>
   </si>
   <si>
@@ -175,9 +151,6 @@
     <t>m34</t>
   </si>
   <si>
-    <t>early-repression2</t>
-  </si>
-  <si>
     <t>m43</t>
   </si>
   <si>
@@ -508,15 +481,9 @@
     <t>m09</t>
   </si>
   <si>
-    <t>recovery2</t>
-  </si>
-  <si>
     <t>m27</t>
   </si>
   <si>
-    <t>early-activation2</t>
-  </si>
-  <si>
     <t>m31</t>
   </si>
   <si>
@@ -532,9 +499,6 @@
     <t>m53</t>
   </si>
   <si>
-    <t>early-repression3</t>
-  </si>
-  <si>
     <t>m40</t>
   </si>
   <si>
@@ -559,10 +523,58 @@
     <t>m67</t>
   </si>
   <si>
-    <t>late-repression2</t>
-  </si>
-  <si>
     <t>m61</t>
+  </si>
+  <si>
+    <t>early activation</t>
+  </si>
+  <si>
+    <t>late activation</t>
+  </si>
+  <si>
+    <t>slow activation</t>
+  </si>
+  <si>
+    <t>late activation 2</t>
+  </si>
+  <si>
+    <t>transient actication</t>
+  </si>
+  <si>
+    <t>early repression</t>
+  </si>
+  <si>
+    <t>late repression</t>
+  </si>
+  <si>
+    <t>early repression 2</t>
+  </si>
+  <si>
+    <t>slow repression 2</t>
+  </si>
+  <si>
+    <t>transient repression</t>
+  </si>
+  <si>
+    <t>transient repression 2</t>
+  </si>
+  <si>
+    <t>slow repression</t>
+  </si>
+  <si>
+    <t>transient actication 2</t>
+  </si>
+  <si>
+    <t>early activation 2</t>
+  </si>
+  <si>
+    <t>early repression 3</t>
+  </si>
+  <si>
+    <t>late repression 2</t>
+  </si>
+  <si>
+    <t>transient repression 3</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1009,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -1032,7 +1044,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -1067,7 +1079,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1102,7 +1114,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -1137,7 +1149,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -1172,7 +1184,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1207,7 +1219,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1242,7 +1254,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1277,7 +1289,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1312,7 +1324,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1347,7 +1359,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1382,7 +1394,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1417,7 +1429,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1452,7 +1464,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1487,7 +1499,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1522,7 +1534,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -1557,7 +1569,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -1592,7 +1604,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1627,7 +1639,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1662,7 +1674,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1697,7 +1709,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1732,7 +1744,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1767,7 +1779,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -1802,7 +1814,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -1837,7 +1849,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -1872,7 +1884,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -1907,7 +1919,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -1942,7 +1954,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
         <v>23</v>
@@ -1977,7 +1989,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -2012,7 +2024,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -2047,7 +2059,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -2082,7 +2094,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -2117,7 +2129,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -2129,10 +2141,10 @@
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>17</v>
@@ -2152,7 +2164,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
@@ -2164,10 +2176,10 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
         <v>17</v>
@@ -2187,7 +2199,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
         <v>19</v>
@@ -2199,10 +2211,10 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G36" t="s">
         <v>17</v>
@@ -2222,7 +2234,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -2234,10 +2246,10 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
         <v>17</v>
@@ -2257,7 +2269,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
         <v>19</v>
@@ -2269,10 +2281,10 @@
         <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>17</v>
@@ -2292,7 +2304,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -2304,10 +2316,10 @@
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>17</v>
@@ -2327,7 +2339,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -2339,10 +2351,10 @@
         <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
         <v>17</v>
@@ -2362,7 +2374,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -2374,10 +2386,10 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
         <v>17</v>
@@ -2397,7 +2409,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -2409,10 +2421,10 @@
         <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G42" t="s">
         <v>17</v>
@@ -2432,7 +2444,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -2444,10 +2456,10 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
         <v>17</v>
@@ -2467,7 +2479,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -2479,10 +2491,10 @@
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -2502,7 +2514,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>22</v>
@@ -2514,10 +2526,10 @@
         <v>14</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
         <v>17</v>
@@ -2537,7 +2549,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
         <v>22</v>
@@ -2549,10 +2561,10 @@
         <v>14</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
@@ -2572,7 +2584,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B47" t="s">
         <v>22</v>
@@ -2584,10 +2596,10 @@
         <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -2607,7 +2619,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B48" t="s">
         <v>22</v>
@@ -2619,10 +2631,10 @@
         <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F48" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -2642,7 +2654,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
@@ -2654,10 +2666,10 @@
         <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
@@ -2677,7 +2689,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>23</v>
@@ -2689,10 +2701,10 @@
         <v>14</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -2712,7 +2724,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B51" t="s">
         <v>23</v>
@@ -2724,10 +2736,10 @@
         <v>14</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -2747,7 +2759,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
         <v>23</v>
@@ -2759,10 +2771,10 @@
         <v>14</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
@@ -2782,7 +2794,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
         <v>23</v>
@@ -2794,10 +2806,10 @@
         <v>14</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -2817,7 +2829,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
@@ -2829,10 +2841,10 @@
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -2852,7 +2864,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
@@ -2864,10 +2876,10 @@
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
         <v>17</v>
@@ -2887,7 +2899,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -2899,10 +2911,10 @@
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
         <v>17</v>
@@ -2922,7 +2934,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
@@ -2934,10 +2946,10 @@
         <v>12</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G57" t="s">
         <v>17</v>
@@ -2957,7 +2969,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
@@ -2969,10 +2981,10 @@
         <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
         <v>17</v>
@@ -2992,7 +3004,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
         <v>20</v>
@@ -3004,10 +3016,10 @@
         <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
         <v>17</v>
@@ -3027,7 +3039,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -3039,10 +3051,10 @@
         <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>17</v>
@@ -3062,7 +3074,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -3074,10 +3086,10 @@
         <v>12</v>
       </c>
       <c r="E61" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>17</v>
@@ -3097,7 +3109,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -3109,10 +3121,10 @@
         <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>17</v>
@@ -3132,7 +3144,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
         <v>20</v>
@@ -3144,10 +3156,10 @@
         <v>12</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G63" t="s">
         <v>17</v>
@@ -3167,7 +3179,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
@@ -3179,10 +3191,10 @@
         <v>14</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
         <v>17</v>
@@ -3202,7 +3214,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -3214,10 +3226,10 @@
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>17</v>
@@ -3237,7 +3249,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -3249,10 +3261,10 @@
         <v>14</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
         <v>17</v>
@@ -3272,7 +3284,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
         <v>22</v>
@@ -3284,10 +3296,10 @@
         <v>14</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
         <v>17</v>
@@ -3307,7 +3319,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -3319,10 +3331,10 @@
         <v>14</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G68" t="s">
         <v>17</v>
@@ -3342,7 +3354,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
         <v>23</v>
@@ -3354,10 +3366,10 @@
         <v>14</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>17</v>
@@ -3377,7 +3389,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
@@ -3389,10 +3401,10 @@
         <v>14</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>17</v>
@@ -3412,7 +3424,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
         <v>23</v>
@@ -3424,10 +3436,10 @@
         <v>14</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
         <v>17</v>
@@ -3447,7 +3459,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
@@ -3459,10 +3471,10 @@
         <v>14</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>17</v>
@@ -3482,7 +3494,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
         <v>23</v>
@@ -3494,10 +3506,10 @@
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
         <v>17</v>
@@ -3517,7 +3529,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -3529,10 +3541,10 @@
         <v>12</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
         <v>17</v>
@@ -3552,7 +3564,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
@@ -3564,10 +3576,10 @@
         <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
         <v>17</v>
@@ -3587,7 +3599,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
@@ -3599,10 +3611,10 @@
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
         <v>17</v>
@@ -3622,7 +3634,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
@@ -3634,10 +3646,10 @@
         <v>12</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
         <v>17</v>
@@ -3657,7 +3669,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
@@ -3669,10 +3681,10 @@
         <v>12</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
         <v>17</v>
@@ -3692,7 +3704,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
@@ -3704,10 +3716,10 @@
         <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
         <v>17</v>
@@ -3727,7 +3739,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
@@ -3739,10 +3751,10 @@
         <v>12</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
         <v>17</v>
@@ -3762,7 +3774,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
@@ -3774,10 +3786,10 @@
         <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
         <v>17</v>
@@ -3797,7 +3809,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -3809,10 +3821,10 @@
         <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>17</v>
@@ -3832,7 +3844,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
@@ -3844,10 +3856,10 @@
         <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
         <v>17</v>
@@ -3867,7 +3879,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B84" t="s">
         <v>22</v>
@@ -3879,10 +3891,10 @@
         <v>14</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
         <v>17</v>
@@ -3902,7 +3914,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
@@ -3914,10 +3926,10 @@
         <v>14</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G85" t="s">
         <v>17</v>
@@ -3937,7 +3949,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
@@ -3949,10 +3961,10 @@
         <v>14</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G86" t="s">
         <v>17</v>
@@ -3972,7 +3984,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
         <v>22</v>
@@ -3984,10 +3996,10 @@
         <v>14</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
         <v>17</v>
@@ -4007,7 +4019,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
         <v>22</v>
@@ -4019,10 +4031,10 @@
         <v>14</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
         <v>17</v>
@@ -4042,7 +4054,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B89" t="s">
         <v>23</v>
@@ -4054,10 +4066,10 @@
         <v>14</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
         <v>17</v>
@@ -4077,7 +4089,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B90" t="s">
         <v>23</v>
@@ -4089,10 +4101,10 @@
         <v>14</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
         <v>17</v>
@@ -4112,7 +4124,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
@@ -4124,10 +4136,10 @@
         <v>14</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>17</v>
@@ -4147,7 +4159,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B92" t="s">
         <v>23</v>
@@ -4159,10 +4171,10 @@
         <v>14</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
         <v>17</v>
@@ -4182,7 +4194,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
@@ -4194,10 +4206,10 @@
         <v>14</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>17</v>
@@ -4226,8 +4238,8 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69:XFD69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4235,7 +4247,7 @@
     <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -4246,7 +4258,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -4269,23 +4281,23 @@
         <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -4293,15 +4305,15 @@
         <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -4312,15 +4324,15 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4328,7 +4340,7 @@
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -4336,7 +4348,7 @@
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -4344,34 +4356,34 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -4379,83 +4391,83 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -4463,26 +4475,26 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -4490,7 +4502,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -4498,34 +4510,34 @@
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D30" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -4533,43 +4545,43 @@
         <v>23</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -4578,34 +4590,34 @@
         <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C37" s="2"/>
       <c r="D37" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C38" s="2"/>
       <c r="D38" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C39" s="2"/>
       <c r="D39" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E39" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -4613,37 +4625,37 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C41" s="2"/>
       <c r="D41" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C42" s="2"/>
       <c r="D42" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C43" s="2"/>
       <c r="D43" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E43" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -4651,46 +4663,46 @@
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C45" s="2"/>
       <c r="D45" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E45" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C46" s="2"/>
       <c r="D46" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C47" s="2"/>
       <c r="D47" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
       <c r="D48" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E48" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -4698,90 +4710,90 @@
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C50" s="2"/>
       <c r="D50" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C51" s="2"/>
       <c r="D51" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E52" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C53" s="2"/>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C54" s="2"/>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C55" s="2"/>
       <c r="D55" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C56" s="2"/>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C57" s="2"/>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E57" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -4789,46 +4801,46 @@
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C59" s="2"/>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C60" s="2"/>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C61" s="2"/>
       <c r="D61" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C62" s="2"/>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -4836,46 +4848,46 @@
         <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C64" s="2"/>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C65" s="2"/>
       <c r="D65" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="E65" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C66" s="2"/>
       <c r="D66" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E66" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C67" s="2"/>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.2">
@@ -4883,45 +4895,45 @@
         <v>23</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C69" s="2"/>
       <c r="D69" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E69" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C70" s="2"/>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E70" t="s">
-        <v>29</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C71" s="2"/>
       <c r="D71" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D72" t="s">
-        <v>147</v>
-      </c>
-      <c r="E72" t="s">
-        <v>37</v>
+        <v>138</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/17_cluster/config.xlsx
+++ b/data/17_cluster/config.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/68338FDB-418E-475F-AB2C-1114A54428ED/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/stress/data/17_cluster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/4553E35D-5778-4E45-B554-963EF2F8A0C4/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/stress/data/17_cluster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C3EFAAF-2E86-C746-844B-68EB298DA4B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4900CB69-F052-9843-B495-113008A96950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26320" yWindow="8640" windowWidth="13040" windowHeight="19300" activeTab="1" xr2:uid="{D70F0D5F-63CF-AE44-9328-5C6897092FCC}"/>
+    <workbookView xWindow="41200" yWindow="9980" windowWidth="10000" windowHeight="18820" xr2:uid="{D70F0D5F-63CF-AE44-9328-5C6897092FCC}"/>
   </bookViews>
   <sheets>
-    <sheet name="wgcna" sheetId="1" r:id="rId1"/>
-    <sheet name="picked" sheetId="2" r:id="rId2"/>
+    <sheet name="picked" sheetId="4" r:id="rId1"/>
+    <sheet name="picked2" sheetId="5" r:id="rId2"/>
+    <sheet name="wgcna" sheetId="1" r:id="rId3"/>
+    <sheet name="picked0" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="311">
   <si>
     <t>cid</t>
   </si>
@@ -575,6 +577,390 @@
   </si>
   <si>
     <t>transient repression 3</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>late activation (25h)</t>
+  </si>
+  <si>
+    <t>late activation (4h)</t>
+  </si>
+  <si>
+    <t>transient activation (0.5h)</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>transient activation 2</t>
+  </si>
+  <si>
+    <t>transient activation</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>c01</t>
+  </si>
+  <si>
+    <t>c02</t>
+  </si>
+  <si>
+    <t>c03</t>
+  </si>
+  <si>
+    <t>c04</t>
+  </si>
+  <si>
+    <t>c05</t>
+  </si>
+  <si>
+    <t>c06</t>
+  </si>
+  <si>
+    <t>c07</t>
+  </si>
+  <si>
+    <t>c08</t>
+  </si>
+  <si>
+    <t>c09</t>
+  </si>
+  <si>
+    <t>c10</t>
+  </si>
+  <si>
+    <t>c11</t>
+  </si>
+  <si>
+    <t>c12</t>
+  </si>
+  <si>
+    <t>c13</t>
+  </si>
+  <si>
+    <t>c14</t>
+  </si>
+  <si>
+    <t>c15</t>
+  </si>
+  <si>
+    <t>c16</t>
+  </si>
+  <si>
+    <t>c17</t>
+  </si>
+  <si>
+    <t>c18</t>
+  </si>
+  <si>
+    <t>c19</t>
+  </si>
+  <si>
+    <t>c20</t>
+  </si>
+  <si>
+    <t>h01</t>
+  </si>
+  <si>
+    <t>h02</t>
+  </si>
+  <si>
+    <t>h03</t>
+  </si>
+  <si>
+    <t>h04</t>
+  </si>
+  <si>
+    <t>h05</t>
+  </si>
+  <si>
+    <t>h06</t>
+  </si>
+  <si>
+    <t>h07</t>
+  </si>
+  <si>
+    <t>h08</t>
+  </si>
+  <si>
+    <t>h09</t>
+  </si>
+  <si>
+    <t>h10</t>
+  </si>
+  <si>
+    <t>h11</t>
+  </si>
+  <si>
+    <t>h12</t>
+  </si>
+  <si>
+    <t>h13</t>
+  </si>
+  <si>
+    <t>h14</t>
+  </si>
+  <si>
+    <t>h15</t>
+  </si>
+  <si>
+    <t>h16</t>
+  </si>
+  <si>
+    <t>h17</t>
+  </si>
+  <si>
+    <t>h18</t>
+  </si>
+  <si>
+    <t>h19</t>
+  </si>
+  <si>
+    <t>h20</t>
+  </si>
+  <si>
+    <t>8down</t>
+  </si>
+  <si>
+    <t>8up</t>
+  </si>
+  <si>
+    <t>4up</t>
+  </si>
+  <si>
+    <t>c21</t>
+  </si>
+  <si>
+    <t>c22</t>
+  </si>
+  <si>
+    <t>c23</t>
+  </si>
+  <si>
+    <t>c24</t>
+  </si>
+  <si>
+    <t>c25</t>
+  </si>
+  <si>
+    <t>c26</t>
+  </si>
+  <si>
+    <t>c27</t>
+  </si>
+  <si>
+    <t>c28</t>
+  </si>
+  <si>
+    <t>c29</t>
+  </si>
+  <si>
+    <t>c30</t>
+  </si>
+  <si>
+    <t>c31</t>
+  </si>
+  <si>
+    <t>c32</t>
+  </si>
+  <si>
+    <t>c33</t>
+  </si>
+  <si>
+    <t>c34</t>
+  </si>
+  <si>
+    <t>c35</t>
+  </si>
+  <si>
+    <t>c36</t>
+  </si>
+  <si>
+    <t>c37</t>
+  </si>
+  <si>
+    <t>c38</t>
+  </si>
+  <si>
+    <t>c39</t>
+  </si>
+  <si>
+    <t>c40</t>
+  </si>
+  <si>
+    <t>c41</t>
+  </si>
+  <si>
+    <t>c42</t>
+  </si>
+  <si>
+    <t>c43</t>
+  </si>
+  <si>
+    <t>c44</t>
+  </si>
+  <si>
+    <t>c45</t>
+  </si>
+  <si>
+    <t>c46</t>
+  </si>
+  <si>
+    <t>c47</t>
+  </si>
+  <si>
+    <t>c48</t>
+  </si>
+  <si>
+    <t>c49</t>
+  </si>
+  <si>
+    <t>c50</t>
+  </si>
+  <si>
+    <t>c51</t>
+  </si>
+  <si>
+    <t>4down</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>transient activation (4h)</t>
+  </si>
+  <si>
+    <t>h21</t>
+  </si>
+  <si>
+    <t>h22</t>
+  </si>
+  <si>
+    <t>h23</t>
+  </si>
+  <si>
+    <t>h24</t>
+  </si>
+  <si>
+    <t>h25</t>
+  </si>
+  <si>
+    <t>h26</t>
+  </si>
+  <si>
+    <t>h27</t>
+  </si>
+  <si>
+    <t>h28</t>
+  </si>
+  <si>
+    <t>h29</t>
+  </si>
+  <si>
+    <t>h30</t>
+  </si>
+  <si>
+    <t>h31</t>
+  </si>
+  <si>
+    <t>h32</t>
+  </si>
+  <si>
+    <t>h33</t>
+  </si>
+  <si>
+    <t>h34</t>
+  </si>
+  <si>
+    <t>h35</t>
+  </si>
+  <si>
+    <t>h36</t>
+  </si>
+  <si>
+    <t>h37</t>
+  </si>
+  <si>
+    <t>h38</t>
+  </si>
+  <si>
+    <t>h39</t>
+  </si>
+  <si>
+    <t>h40</t>
+  </si>
+  <si>
+    <t>h41</t>
+  </si>
+  <si>
+    <t>h42</t>
+  </si>
+  <si>
+    <t>h43</t>
+  </si>
+  <si>
+    <t>h44</t>
+  </si>
+  <si>
+    <t>h45</t>
+  </si>
+  <si>
+    <t>h46</t>
+  </si>
+  <si>
+    <t>h47</t>
+  </si>
+  <si>
+    <t>h48</t>
+  </si>
+  <si>
+    <t>h49</t>
+  </si>
+  <si>
+    <t>h50</t>
+  </si>
+  <si>
+    <t>early activation (1h)</t>
+  </si>
+  <si>
+    <t>early activation (strong)</t>
+  </si>
+  <si>
+    <t>h51</t>
+  </si>
+  <si>
+    <t>h52</t>
+  </si>
+  <si>
+    <t>h53</t>
+  </si>
+  <si>
+    <t>h54</t>
+  </si>
+  <si>
+    <t>h55</t>
+  </si>
+  <si>
+    <t>h56</t>
+  </si>
+  <si>
+    <t>h57</t>
+  </si>
+  <si>
+    <t>h58</t>
+  </si>
+  <si>
+    <t>h59</t>
+  </si>
+  <si>
+    <t>h60</t>
+  </si>
+  <si>
+    <t>idx</t>
   </si>
 </sst>
 </file>
@@ -603,7 +989,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,6 +999,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,16 +1021,46 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -947,6 +1369,1584 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87AACC9-BBF8-CC45-AFD5-086AA89DDA73}">
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" t="s">
+        <v>166</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B28" t="s">
+        <v>217</v>
+      </c>
+      <c r="C28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"heat"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"cold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7AA902-E080-3F4E-8C88-AB63FAB822D4}">
+  <dimension ref="A1:D112"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D89" sqref="D89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D21" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>187</v>
+      </c>
+      <c r="B27" t="s">
+        <v>239</v>
+      </c>
+      <c r="D27" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" t="s">
+        <v>243</v>
+      </c>
+      <c r="D31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32" t="s">
+        <v>244</v>
+      </c>
+      <c r="D32" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>187</v>
+      </c>
+      <c r="B40" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" t="s">
+        <v>255</v>
+      </c>
+      <c r="D43" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" t="s">
+        <v>259</v>
+      </c>
+      <c r="D47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B48" t="s">
+        <v>260</v>
+      </c>
+      <c r="D48" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>264</v>
+      </c>
+      <c r="D52" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B57" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s">
+        <v>221</v>
+      </c>
+      <c r="C63" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" t="s">
+        <v>222</v>
+      </c>
+      <c r="C64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" t="s">
+        <v>225</v>
+      </c>
+      <c r="C67" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" t="s">
+        <v>227</v>
+      </c>
+      <c r="C69" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" t="s">
+        <v>229</v>
+      </c>
+      <c r="D71" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" t="s">
+        <v>230</v>
+      </c>
+      <c r="D72" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" t="s">
+        <v>268</v>
+      </c>
+      <c r="D73" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B74" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B75" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" t="s">
+        <v>272</v>
+      </c>
+      <c r="C77" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B79" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B80" t="s">
+        <v>275</v>
+      </c>
+      <c r="D80" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" t="s">
+        <v>276</v>
+      </c>
+      <c r="D81" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82" t="s">
+        <v>277</v>
+      </c>
+      <c r="C82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" t="s">
+        <v>278</v>
+      </c>
+      <c r="D83" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" t="s">
+        <v>279</v>
+      </c>
+      <c r="D84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D85" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B86" t="s">
+        <v>281</v>
+      </c>
+      <c r="D86" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B89" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B90" t="s">
+        <v>285</v>
+      </c>
+      <c r="D90" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" t="s">
+        <v>286</v>
+      </c>
+      <c r="D91" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B93" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B94" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B95" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B96" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B100" t="s">
+        <v>295</v>
+      </c>
+      <c r="D100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B101" t="s">
+        <v>296</v>
+      </c>
+      <c r="D101" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B102" t="s">
+        <v>297</v>
+      </c>
+      <c r="D102" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B103" t="s">
+        <v>300</v>
+      </c>
+      <c r="D103" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B104" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B105" t="s">
+        <v>302</v>
+      </c>
+      <c r="D105" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B106" t="s">
+        <v>303</v>
+      </c>
+      <c r="D106" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B107" t="s">
+        <v>304</v>
+      </c>
+      <c r="D107" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B108" t="s">
+        <v>305</v>
+      </c>
+      <c r="D108" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109" t="s">
+        <v>306</v>
+      </c>
+      <c r="D109" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B110" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B111" t="s">
+        <v>308</v>
+      </c>
+      <c r="D111" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"heat"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"cold"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7177DAC0-997A-AF40-A87E-5F95B67DFD85}">
   <dimension ref="A1:L93"/>
   <sheetViews>
@@ -4233,11 +6233,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54165D84-5B53-8948-A4BF-CD8E2D626362}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>

--- a/data/17_cluster/config.xlsx
+++ b/data/17_cluster/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/4553E35D-5778-4E45-B554-963EF2F8A0C4/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/stress/data/17_cluster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/49CE993C-8A6C-4F45-809D-15544B004617/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/stress/data/17_cluster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4900CB69-F052-9843-B495-113008A96950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050BE5DB-04C1-F64B-BE3A-B69B76B4EF7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41200" yWindow="9980" windowWidth="10000" windowHeight="18820" xr2:uid="{D70F0D5F-63CF-AE44-9328-5C6897092FCC}"/>
+    <workbookView xWindow="15700" yWindow="8280" windowWidth="10000" windowHeight="18820" xr2:uid="{D70F0D5F-63CF-AE44-9328-5C6897092FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="picked" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="311">
   <si>
     <t>cid</t>
   </si>
@@ -1374,7 +1374,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1410,8 +1410,8 @@
       <c r="C2" t="s">
         <v>166</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1424,8 +1424,8 @@
       <c r="C3" t="s">
         <v>171</v>
       </c>
-      <c r="D3">
-        <v>4</v>
+      <c r="D3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1438,8 +1438,8 @@
       <c r="C4" t="s">
         <v>177</v>
       </c>
-      <c r="D4">
-        <v>5</v>
+      <c r="D4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1452,8 +1452,8 @@
       <c r="C5" t="s">
         <v>168</v>
       </c>
-      <c r="D5">
-        <v>2</v>
+      <c r="D5" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1507,8 +1507,8 @@
       <c r="C10" t="s">
         <v>167</v>
       </c>
-      <c r="D10">
-        <v>3</v>
+      <c r="D10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1612,8 +1612,8 @@
       <c r="C22" t="s">
         <v>166</v>
       </c>
-      <c r="D22">
-        <v>11</v>
+      <c r="D22" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1626,8 +1626,8 @@
       <c r="C23" t="s">
         <v>171</v>
       </c>
-      <c r="D23">
-        <v>15</v>
+      <c r="D23" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1662,8 +1662,8 @@
       <c r="C26" t="s">
         <v>184</v>
       </c>
-      <c r="D26">
-        <v>12</v>
+      <c r="D26" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1676,8 +1676,8 @@
       <c r="C27" t="s">
         <v>189</v>
       </c>
-      <c r="D27">
-        <v>13</v>
+      <c r="D27" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1701,8 +1701,8 @@
       <c r="C29" t="s">
         <v>186</v>
       </c>
-      <c r="D29">
-        <v>14</v>
+      <c r="D29" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/17_cluster/config.xlsx
+++ b/data/17_cluster/config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/49CE993C-8A6C-4F45-809D-15544B004617/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/stress/data/17_cluster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/6998A4BA-FB15-44D1-A6AD-18AE17E78A6F/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/stress/data/17_cluster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050BE5DB-04C1-F64B-BE3A-B69B76B4EF7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F439106-ADFF-4745-951B-5A5E928FBC2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15700" yWindow="8280" windowWidth="10000" windowHeight="18820" xr2:uid="{D70F0D5F-63CF-AE44-9328-5C6897092FCC}"/>
+    <workbookView xWindow="6800" yWindow="7280" windowWidth="10000" windowHeight="18820" xr2:uid="{D70F0D5F-63CF-AE44-9328-5C6897092FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="picked" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="310">
   <si>
     <t>cid</t>
   </si>
@@ -594,9 +594,6 @@
     <t>cold</t>
   </si>
   <si>
-    <t>transient activation 2</t>
-  </si>
-  <si>
     <t>transient activation</t>
   </si>
   <si>
@@ -729,9 +726,6 @@
     <t>8up</t>
   </si>
   <si>
-    <t>4up</t>
-  </si>
-  <si>
     <t>c21</t>
   </si>
   <si>
@@ -961,6 +955,9 @@
   </si>
   <si>
     <t>idx</t>
+  </si>
+  <si>
+    <t>transient activation (1h)</t>
   </si>
 </sst>
 </file>
@@ -1374,7 +1371,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1397,7 +1394,7 @@
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1405,13 +1402,13 @@
         <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1419,13 +1416,13 @@
         <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1433,13 +1430,13 @@
         <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1447,13 +1444,13 @@
         <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" t="s">
         <v>168</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1461,7 +1458,7 @@
         <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1469,10 +1466,7 @@
         <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1480,10 +1474,7 @@
         <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C8" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1491,10 +1482,7 @@
         <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C9" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1502,13 +1490,7 @@
         <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
-      </c>
-      <c r="C10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1516,7 +1498,7 @@
         <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1524,10 +1506,7 @@
         <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1535,7 +1514,7 @@
         <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1543,7 +1522,7 @@
         <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1551,7 +1530,7 @@
         <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1559,7 +1538,7 @@
         <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1567,7 +1546,7 @@
         <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1575,7 +1554,7 @@
         <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1583,7 +1562,7 @@
         <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1591,7 +1570,7 @@
         <v>187</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1599,7 +1578,7 @@
         <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1607,13 +1586,13 @@
         <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C22" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="D22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1621,13 +1600,13 @@
         <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1635,10 +1614,13 @@
         <v>183</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
-      </c>
-      <c r="C24" t="s">
-        <v>168</v>
+        <v>212</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D24" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1646,10 +1628,13 @@
         <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="D25" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1657,13 +1642,13 @@
         <v>183</v>
       </c>
       <c r="B26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1671,13 +1656,7 @@
         <v>183</v>
       </c>
       <c r="B27" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" t="s">
-        <v>189</v>
-      </c>
-      <c r="D27" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1685,10 +1664,7 @@
         <v>183</v>
       </c>
       <c r="B28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C28" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1696,13 +1672,7 @@
         <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>218</v>
-      </c>
-      <c r="C29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1710,7 +1680,7 @@
         <v>183</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1718,7 +1688,7 @@
         <v>183</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1726,85 +1696,79 @@
         <v>183</v>
       </c>
       <c r="B32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
         <v>222</v>
       </c>
-      <c r="C33" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" t="s">
         <v>223</v>
       </c>
-      <c r="C34" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B36" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B39" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B41" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B41" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -1851,7 +1815,7 @@
         <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,7 +1823,7 @@
         <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
         <v>166</v>
@@ -1870,7 +1834,7 @@
         <v>187</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
         <v>171</v>
@@ -1881,7 +1845,7 @@
         <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1889,7 +1853,7 @@
         <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1897,7 +1861,7 @@
         <v>187</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1905,7 +1869,7 @@
         <v>187</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1913,10 +1877,10 @@
         <v>187</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1924,7 +1888,7 @@
         <v>187</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1932,10 +1896,10 @@
         <v>187</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1943,10 +1907,10 @@
         <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1954,10 +1918,10 @@
         <v>187</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1965,10 +1929,10 @@
         <v>187</v>
       </c>
       <c r="B13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1976,7 +1940,7 @@
         <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1984,10 +1948,10 @@
         <v>187</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1995,7 +1959,7 @@
         <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2003,10 +1967,10 @@
         <v>187</v>
       </c>
       <c r="B17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2014,7 +1978,7 @@
         <v>187</v>
       </c>
       <c r="B18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2022,7 +1986,7 @@
         <v>187</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2030,7 +1994,7 @@
         <v>187</v>
       </c>
       <c r="B20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C20" t="s">
         <v>185</v>
@@ -2041,10 +2005,10 @@
         <v>187</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2052,7 +2016,7 @@
         <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2060,7 +2024,7 @@
         <v>187</v>
       </c>
       <c r="B23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2068,7 +2032,7 @@
         <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2076,10 +2040,10 @@
         <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2087,10 +2051,10 @@
         <v>187</v>
       </c>
       <c r="B26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2098,10 +2062,10 @@
         <v>187</v>
       </c>
       <c r="B27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D27" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2109,7 +2073,7 @@
         <v>187</v>
       </c>
       <c r="B28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2117,10 +2081,10 @@
         <v>187</v>
       </c>
       <c r="B29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D29" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2128,10 +2092,10 @@
         <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2139,10 +2103,10 @@
         <v>187</v>
       </c>
       <c r="B31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2150,10 +2114,10 @@
         <v>187</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2161,7 +2125,7 @@
         <v>187</v>
       </c>
       <c r="B33" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2169,7 +2133,7 @@
         <v>187</v>
       </c>
       <c r="B34" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C34" t="s">
         <v>184</v>
@@ -2180,7 +2144,7 @@
         <v>187</v>
       </c>
       <c r="B35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2188,7 +2152,7 @@
         <v>187</v>
       </c>
       <c r="B36" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2196,10 +2160,10 @@
         <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2207,7 +2171,7 @@
         <v>187</v>
       </c>
       <c r="B38" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2215,7 +2179,7 @@
         <v>187</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2223,10 +2187,10 @@
         <v>187</v>
       </c>
       <c r="B40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2234,7 +2198,7 @@
         <v>187</v>
       </c>
       <c r="B41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2242,10 +2206,10 @@
         <v>187</v>
       </c>
       <c r="B42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2253,10 +2217,10 @@
         <v>187</v>
       </c>
       <c r="B43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2264,7 +2228,7 @@
         <v>187</v>
       </c>
       <c r="B44" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2272,7 +2236,7 @@
         <v>187</v>
       </c>
       <c r="B45" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2280,7 +2244,7 @@
         <v>187</v>
       </c>
       <c r="B46" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2288,10 +2252,10 @@
         <v>187</v>
       </c>
       <c r="B47" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D47" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2299,10 +2263,10 @@
         <v>187</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D48" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2310,7 +2274,7 @@
         <v>187</v>
       </c>
       <c r="B49" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,10 +2282,10 @@
         <v>187</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2329,10 +2293,10 @@
         <v>187</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D51" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2340,10 +2304,10 @@
         <v>187</v>
       </c>
       <c r="B52" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" t="s">
         <v>264</v>
-      </c>
-      <c r="D52" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2351,7 +2315,7 @@
         <v>183</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
         <v>171</v>
@@ -2362,7 +2326,7 @@
         <v>183</v>
       </c>
       <c r="B54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C54" t="s">
         <v>166</v>
@@ -2373,7 +2337,7 @@
         <v>183</v>
       </c>
       <c r="B55" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2381,7 +2345,7 @@
         <v>183</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2389,7 +2353,7 @@
         <v>183</v>
       </c>
       <c r="B57" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2397,7 +2361,7 @@
         <v>183</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2405,7 +2369,7 @@
         <v>183</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2413,7 +2377,7 @@
         <v>183</v>
       </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2421,7 +2385,7 @@
         <v>183</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2429,10 +2393,10 @@
         <v>183</v>
       </c>
       <c r="B62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D62" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2440,10 +2404,10 @@
         <v>183</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2451,7 +2415,7 @@
         <v>183</v>
       </c>
       <c r="B64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C64" t="s">
         <v>186</v>
@@ -2462,10 +2426,10 @@
         <v>183</v>
       </c>
       <c r="B65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2473,7 +2437,7 @@
         <v>183</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2481,10 +2445,10 @@
         <v>183</v>
       </c>
       <c r="B67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C67" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2492,7 +2456,7 @@
         <v>183</v>
       </c>
       <c r="B68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C68" t="s">
         <v>184</v>
@@ -2503,7 +2467,7 @@
         <v>183</v>
       </c>
       <c r="B69" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C69" t="s">
         <v>175</v>
@@ -2514,7 +2478,7 @@
         <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -2522,10 +2486,10 @@
         <v>183</v>
       </c>
       <c r="B71" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D71" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -2533,10 +2497,10 @@
         <v>183</v>
       </c>
       <c r="B72" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D72" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2544,10 +2508,10 @@
         <v>183</v>
       </c>
       <c r="B73" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D73" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2555,7 +2519,7 @@
         <v>183</v>
       </c>
       <c r="B74" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2563,10 +2527,10 @@
         <v>183</v>
       </c>
       <c r="B75" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C75" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2574,7 +2538,7 @@
         <v>183</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2582,7 +2546,7 @@
         <v>183</v>
       </c>
       <c r="B77" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C77" t="s">
         <v>185</v>
@@ -2593,10 +2557,10 @@
         <v>183</v>
       </c>
       <c r="B78" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2604,7 +2568,7 @@
         <v>183</v>
       </c>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2612,10 +2576,10 @@
         <v>183</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D80" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -2623,10 +2587,10 @@
         <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D81" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -2634,10 +2598,10 @@
         <v>183</v>
       </c>
       <c r="B82" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -2645,10 +2609,10 @@
         <v>183</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D83" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -2656,10 +2620,10 @@
         <v>183</v>
       </c>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D84" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -2667,10 +2631,10 @@
         <v>183</v>
       </c>
       <c r="B85" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D85" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2678,10 +2642,10 @@
         <v>183</v>
       </c>
       <c r="B86" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -2689,7 +2653,7 @@
         <v>183</v>
       </c>
       <c r="B87" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2697,7 +2661,7 @@
         <v>183</v>
       </c>
       <c r="B88" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -2705,7 +2669,7 @@
         <v>183</v>
       </c>
       <c r="B89" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2713,10 +2677,10 @@
         <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D90" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2724,10 +2688,10 @@
         <v>183</v>
       </c>
       <c r="B91" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D91" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2735,7 +2699,7 @@
         <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -2743,7 +2707,7 @@
         <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2751,7 +2715,7 @@
         <v>183</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -2759,7 +2723,7 @@
         <v>183</v>
       </c>
       <c r="B95" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -2767,7 +2731,7 @@
         <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -2775,7 +2739,7 @@
         <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -2783,7 +2747,7 @@
         <v>183</v>
       </c>
       <c r="B98" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -2791,10 +2755,10 @@
         <v>183</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D99" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -2802,10 +2766,10 @@
         <v>183</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D100" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -2813,10 +2777,10 @@
         <v>183</v>
       </c>
       <c r="B101" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D101" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -2824,10 +2788,10 @@
         <v>183</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D102" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2835,10 +2799,10 @@
         <v>183</v>
       </c>
       <c r="B103" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D103" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2846,7 +2810,7 @@
         <v>183</v>
       </c>
       <c r="B104" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -2854,10 +2818,10 @@
         <v>183</v>
       </c>
       <c r="B105" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D105" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -2865,10 +2829,10 @@
         <v>183</v>
       </c>
       <c r="B106" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D106" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2876,10 +2840,10 @@
         <v>183</v>
       </c>
       <c r="B107" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D107" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -2887,10 +2851,10 @@
         <v>183</v>
       </c>
       <c r="B108" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D108" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2898,10 +2862,10 @@
         <v>183</v>
       </c>
       <c r="B109" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D109" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -2909,7 +2873,7 @@
         <v>183</v>
       </c>
       <c r="B110" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -2917,10 +2881,10 @@
         <v>183</v>
       </c>
       <c r="B111" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D111" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -2928,7 +2892,7 @@
         <v>183</v>
       </c>
       <c r="B112" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/data/17_cluster/config.xlsx
+++ b/data/17_cluster/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/6998A4BA-FB15-44D1-A6AD-18AE17E78A6F/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/stress/data/17_cluster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/15D28717-6353-4C08-B9FC-9D341E2B75B5/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/stress/data/17_cluster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F439106-ADFF-4745-951B-5A5E928FBC2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A01AAC-8C9B-CA4F-BA6C-E0425FE266D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="7280" windowWidth="10000" windowHeight="18820" xr2:uid="{D70F0D5F-63CF-AE44-9328-5C6897092FCC}"/>
+    <workbookView xWindow="15920" yWindow="2180" windowWidth="10000" windowHeight="18820" xr2:uid="{D70F0D5F-63CF-AE44-9328-5C6897092FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="picked" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="310">
   <si>
     <t>cid</t>
   </si>
@@ -957,7 +957,7 @@
     <t>idx</t>
   </si>
   <si>
-    <t>transient activation (1h)</t>
+    <t>early repreession</t>
   </si>
 </sst>
 </file>
@@ -1405,10 +1405,10 @@
         <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" t="s">
-        <v>232</v>
+        <v>167</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1419,10 +1419,10 @@
         <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>200</v>
+        <v>172</v>
+      </c>
+      <c r="D3">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1432,12 +1432,6 @@
       <c r="B4" t="s">
         <v>192</v>
       </c>
-      <c r="C4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" t="s">
-        <v>233</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1447,10 +1441,10 @@
         <v>193</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" t="s">
-        <v>201</v>
+        <v>171</v>
+      </c>
+      <c r="D5">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1460,6 +1454,12 @@
       <c r="B6" t="s">
         <v>194</v>
       </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1589,10 +1589,10 @@
         <v>210</v>
       </c>
       <c r="C22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" t="s">
-        <v>242</v>
+        <v>188</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1603,10 +1603,10 @@
         <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
-      </c>
-      <c r="D23" t="s">
-        <v>244</v>
+        <v>309</v>
+      </c>
+      <c r="D23">
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1616,12 +1616,6 @@
       <c r="B24" t="s">
         <v>212</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D24" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
@@ -1630,11 +1624,11 @@
       <c r="B25" t="s">
         <v>213</v>
       </c>
-      <c r="C25" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" t="s">
-        <v>252</v>
+      <c r="C25" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1643,12 +1637,6 @@
       </c>
       <c r="B26" t="s">
         <v>214</v>
-      </c>
-      <c r="C26" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">

--- a/data/17_cluster/config.xlsx
+++ b/data/17_cluster/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/15D28717-6353-4C08-B9FC-9D341E2B75B5/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/stress/data/17_cluster/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/A1D794BC-065F-419E-B966-C4631E70B20E/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/stress/data/17_cluster/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A01AAC-8C9B-CA4F-BA6C-E0425FE266D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A21B0E2-F8FB-2D48-A340-7EFAD39DA706}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="2180" windowWidth="10000" windowHeight="18820" xr2:uid="{D70F0D5F-63CF-AE44-9328-5C6897092FCC}"/>
+    <workbookView xWindow="28920" yWindow="5620" windowWidth="10000" windowHeight="18820" xr2:uid="{D70F0D5F-63CF-AE44-9328-5C6897092FCC}"/>
   </bookViews>
   <sheets>
     <sheet name="picked" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="309">
   <si>
     <t>cid</t>
   </si>
@@ -955,9 +955,6 @@
   </si>
   <si>
     <t>idx</t>
-  </si>
-  <si>
-    <t>early repreession</t>
   </si>
 </sst>
 </file>
@@ -1371,7 +1368,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1589,7 +1586,7 @@
         <v>210</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="D22">
         <v>32</v>
@@ -1603,7 +1600,7 @@
         <v>211</v>
       </c>
       <c r="C23" t="s">
-        <v>309</v>
+        <v>171</v>
       </c>
       <c r="D23">
         <v>41</v>
@@ -1625,7 +1622,7 @@
         <v>213</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D25">
         <v>31</v>
